--- a/nmadb/501240.xlsx
+++ b/nmadb/501240.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="740" windowWidth="25360" windowHeight="14720"/>
+    <workbookView xWindow="975" yWindow="735" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -47,9 +47,6 @@
     <t>IND 300</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">B2334 </t>
   </si>
   <si>
@@ -68,21 +65,6 @@
     <t>t2</t>
   </si>
   <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>SMD1</t>
-  </si>
-  <si>
-    <t>se1</t>
-  </si>
-  <si>
-    <t>SMD2</t>
-  </si>
-  <si>
-    <t>se2</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -147,15 +129,6 @@
   </si>
   <si>
     <t xml:space="preserve">B23355 </t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>SMD3</t>
-  </si>
-  <si>
-    <t>se3</t>
   </si>
   <si>
     <r>
@@ -171,16 +144,25 @@
       <t>:  FEV1</t>
     </r>
   </si>
+  <si>
+    <t>effect=SMD</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +219,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -279,11 +262,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -412,7 +397,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -519,40 +504,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -852,30 +843,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="9"/>
-    <col min="4" max="4" width="18.1640625" style="9" customWidth="1"/>
-    <col min="5" max="7" width="7.5" style="9" customWidth="1"/>
-    <col min="8" max="14" width="8.83203125" style="9"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" customWidth="1"/>
-    <col min="17" max="17" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="18.140625" style="9" customWidth="1"/>
+    <col min="5" max="9" width="7.42578125" style="9" customWidth="1"/>
+    <col min="10" max="16" width="8.85546875" style="9"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="19" max="19" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -886,50 +877,40 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15">
+      <c r="R1" s="14"/>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75">
       <c r="A2" s="9">
         <v>2008</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
@@ -940,35 +921,35 @@
       <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="28">
+      <c r="F2" s="44">
         <v>0.1</v>
       </c>
-      <c r="I2" s="28">
+      <c r="G2" s="44">
         <v>0.03</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="26"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="18">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="17" t="s">
+      <c r="R2" s="18">
+        <v>1</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15">
+    <row r="3" spans="1:19" ht="15.75">
       <c r="A3" s="10">
         <v>2006</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -979,33 +960,33 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="28">
+      <c r="F3" s="44">
         <v>0.11</v>
       </c>
-      <c r="I3" s="28">
+      <c r="G3" s="44">
         <v>0.04</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="26"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="21">
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="21">
         <v>2</v>
       </c>
-      <c r="Q3" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15">
+      <c r="S3" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75">
       <c r="A4" s="10">
         <v>2005</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C4" s="31">
         <v>3</v>
@@ -1016,33 +997,33 @@
       <c r="E4" s="12">
         <v>2</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="28">
+      <c r="F4" s="44">
         <v>0.18</v>
       </c>
-      <c r="I4" s="28">
+      <c r="G4" s="44">
         <v>0.04</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="22">
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="22">
         <v>3</v>
       </c>
-      <c r="Q4" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+      <c r="S4" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="10">
         <v>2000</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" s="31">
         <v>4</v>
@@ -1053,33 +1034,33 @@
       <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="28">
+      <c r="F5" s="44">
         <v>0.15</v>
       </c>
-      <c r="I5" s="28">
+      <c r="G5" s="44">
         <v>0.01</v>
       </c>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="21">
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="21">
         <v>4</v>
       </c>
-      <c r="Q5" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="S5" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="10">
         <v>2002</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" s="31">
         <v>5</v>
@@ -1090,32 +1071,32 @@
       <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="28">
+      <c r="F6" s="44">
         <v>0.13</v>
       </c>
-      <c r="I6" s="28">
+      <c r="G6" s="44">
         <v>0.02</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
-      <c r="N6" s="12"/>
-      <c r="P6" s="22">
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="12"/>
+      <c r="R6" s="22">
         <v>5</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="S6" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="10">
         <v>2005</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="31">
         <v>6</v>
@@ -1126,32 +1107,32 @@
       <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="28">
+      <c r="F7" s="44">
         <v>0.1</v>
       </c>
-      <c r="I7" s="28">
+      <c r="G7" s="44">
         <v>0.01</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="12"/>
-      <c r="P7" s="21">
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="12"/>
+      <c r="R7" s="21">
         <v>6</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="S7" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15">
+    <row r="8" spans="1:19" ht="15.75">
       <c r="A8" s="10">
         <v>2007</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="31">
         <v>7</v>
@@ -1162,32 +1143,32 @@
       <c r="E8" s="31">
         <v>2</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="28">
+      <c r="F8" s="44">
         <v>0.1</v>
       </c>
-      <c r="I8" s="28">
+      <c r="G8" s="44">
         <v>0.02</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="P8" s="22">
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="33"/>
+      <c r="R8" s="22">
         <v>7</v>
       </c>
-      <c r="Q8" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15">
+      <c r="S8" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75">
       <c r="A9" s="35">
         <v>2008</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="37">
         <v>8</v>
@@ -1199,27 +1180,25 @@
         <v>2</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="41"/>
-      <c r="N9" s="33"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="10">
         <v>2003</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="34">
         <v>9</v>
@@ -1230,28 +1209,29 @@
       <c r="E10" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="28">
+      <c r="F10" s="44">
         <v>0.1</v>
       </c>
-      <c r="I10" s="28">
+      <c r="G10" s="44">
         <v>0.03</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:17" ht="15">
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="S10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75">
       <c r="A11" s="34">
         <v>2002</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9">
         <v>10</v>
@@ -1262,26 +1242,26 @@
       <c r="E11" s="34">
         <v>3</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="28">
+      <c r="F11" s="44">
         <v>0.13</v>
       </c>
-      <c r="I11" s="28">
+      <c r="G11" s="44">
         <v>0.02</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
-    </row>
-    <row r="12" spans="1:17" ht="15">
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75">
       <c r="A12" s="37">
         <v>1999</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="37">
         <v>11</v>
@@ -1292,26 +1272,26 @@
       <c r="E12" s="37">
         <v>3</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="F12" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" ht="15">
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75">
       <c r="A13" s="37">
         <v>2003</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" s="37">
         <v>12</v>
@@ -1322,26 +1302,26 @@
       <c r="E13" s="37">
         <v>3</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
+      <c r="F13" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="1:17" ht="15">
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75">
       <c r="A14" s="34">
         <v>2008</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9">
         <v>13</v>
@@ -1352,26 +1332,26 @@
       <c r="E14" s="34">
         <v>4</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="28">
+      <c r="F14" s="44">
         <v>0.08</v>
       </c>
-      <c r="I14" s="28">
+      <c r="G14" s="44">
         <v>0.03</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
-    </row>
-    <row r="15" spans="1:17" ht="15">
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75">
       <c r="A15" s="34">
         <v>2002</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12">
         <v>14</v>
@@ -1382,26 +1362,26 @@
       <c r="E15" s="34">
         <v>4</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="28">
+      <c r="F15" s="44">
         <v>0.04</v>
       </c>
-      <c r="I15" s="28">
+      <c r="G15" s="44">
         <v>0.02</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="L15" s="34"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-    </row>
-    <row r="16" spans="1:17" ht="15">
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75">
       <c r="A16" s="37">
         <v>2001</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C16" s="39">
         <v>15</v>
@@ -1412,26 +1392,26 @@
       <c r="E16" s="37">
         <v>4</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="F16" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
-      <c r="N16" s="34"/>
-    </row>
-    <row r="17" spans="1:14" ht="15">
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75">
       <c r="A17" s="10">
         <v>2008</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9">
         <v>16</v>
@@ -1442,343 +1422,478 @@
       <c r="E17" s="12">
         <v>4</v>
       </c>
-      <c r="F17" s="12">
-        <v>5</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="28">
+      <c r="F17" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I17" s="28">
+      <c r="G17" s="28">
         <v>0.02</v>
       </c>
-      <c r="J17" s="28">
-        <v>0.17</v>
-      </c>
-      <c r="K17" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="15">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75">
       <c r="A18" s="10">
         <v>2008</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="9">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="4"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75">
+      <c r="A19" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9">
         <v>17</v>
       </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="12">
-        <v>5</v>
-      </c>
-      <c r="G18" s="12">
-        <v>6</v>
-      </c>
-      <c r="H18" s="28">
+      <c r="F19" s="28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I18" s="28">
+      <c r="G19" s="28">
         <v>0.02</v>
       </c>
-      <c r="J18" s="28">
-        <v>0.18</v>
-      </c>
-      <c r="K18" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="L18" s="28">
-        <v>0.18</v>
-      </c>
-      <c r="M18" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1">
-      <c r="A19" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="9">
-        <v>18</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9">
-        <v>3</v>
-      </c>
-      <c r="F19" s="12">
-        <v>6</v>
-      </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="28">
-        <v>0.11</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="J19" s="28">
-        <v>0.17</v>
-      </c>
-      <c r="K19" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-    </row>
-    <row r="20" spans="1:14" ht="15">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75">
       <c r="A20" s="10">
         <v>2008</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9">
+        <v>17</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="4"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75">
+      <c r="A21" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9">
+        <v>17</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.18</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="4"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1">
+      <c r="A22" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>3</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1">
+      <c r="A23" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9">
+        <v>18</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9">
+        <v>6</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0.02</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75">
+      <c r="A24" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="9">
         <v>19</v>
       </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
         <v>6</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="28">
+      <c r="F24" s="28">
         <v>0.13</v>
       </c>
-      <c r="I20" s="28">
+      <c r="G24" s="28">
         <v>0.02</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1">
-      <c r="A21" s="10">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1">
+      <c r="A25" s="10">
         <v>2010</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B25" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="9">
         <v>20</v>
       </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
         <v>7</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="28">
+      <c r="F25" s="28">
         <v>0.12</v>
       </c>
-      <c r="I21" s="28">
+      <c r="G25" s="28">
         <v>0.02</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1">
-      <c r="A22" s="10">
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1">
+      <c r="A26" s="10">
         <v>2010</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B26" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="9">
         <v>21</v>
       </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
         <v>7</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="28">
+      <c r="F26" s="28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I22" s="28">
+      <c r="G26" s="28">
         <v>0.02</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="9">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="9">
         <v>2005</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B27" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="9">
         <v>22</v>
       </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
         <v>2</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="42">
+      <c r="F27" s="42">
         <v>0.02</v>
       </c>
-      <c r="I23" s="43">
+      <c r="G27" s="43">
         <v>0.02</v>
       </c>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:16">
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="1:16">
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33" s="12"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="3:12" ht="15" customHeight="1">
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34" s="12"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="3:12">
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
       <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35" s="12"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="3:12">
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="3:12" ht="15" customHeight="1">
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
       <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="3:10">
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
       <c r="J37" s="13"/>
-    </row>
-    <row r="38" spans="3:10" ht="15" customHeight="1">
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
       <c r="J38" s="13"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="3:12" ht="15" customHeight="1">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="L42" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1792,12 +1907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1809,12 +1926,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
